--- a/application/views/rpt/ua/LedgerPayments.xlsx
+++ b/application/views/rpt/ua/LedgerPayments.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\isell3\application\views\rpt\ua\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
@@ -66,9 +71,6 @@
     <t>{$v-&gt;p-&gt;company_name}, в особі __________________________________</t>
   </si>
   <si>
-    <t>з іншої сторони, склали цей акт звірки взаєморозрахунків за період з {$v-&gt;idate} за станом на {$v-&gt;fdate}.</t>
-  </si>
-  <si>
     <t>{$v-&gt;a-&gt;company_name}</t>
   </si>
   <si>
@@ -97,6 +99,9 @@
   </si>
   <si>
     <t>{$v-&gt;ledger-&gt;rows[]-&gt;trans_status}</t>
+  </si>
+  <si>
+    <t>з іншої сторони, склали цей акт звірки взаєморозрахунків за період з {$v-&gt;idate_dmy} за станом на {$v-&gt;fdate_dmy}.</t>
   </si>
 </sst>
 </file>
@@ -486,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,7 +526,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,7 +738,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -773,7 +778,7 @@
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="31" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -803,7 +808,7 @@
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="28"/>
     </row>
@@ -826,22 +831,22 @@
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -853,7 +858,7 @@
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -861,7 +866,7 @@
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -895,10 +900,10 @@
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>17</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>18</v>
       </c>
       <c r="E16" s="25"/>
     </row>

--- a/application/views/rpt/ua/LedgerPayments.xlsx
+++ b/application/views/rpt/ua/LedgerPayments.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Документ</t>
   </si>
@@ -102,13 +102,40 @@
   </si>
   <si>
     <t>з іншої сторони, склали цей акт звірки взаєморозрахунків за період з {$v-&gt;idate_dmy} за станом на {$v-&gt;fdate_dmy}.</t>
+  </si>
+  <si>
+    <t>{$v-&gt;fdate_dmy}</t>
+  </si>
+  <si>
+    <t>Кінцевий залишок</t>
+  </si>
+  <si>
+    <t>{$v-&gt;ledger-&gt;sub_totals-&gt;fbal}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;ledger-&gt;sub_totals-&gt;pdebit}</t>
+  </si>
+  <si>
+    <t>Оберти за період</t>
+  </si>
+  <si>
+    <t>{$v-&gt;idate_dmy}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;ledger-&gt;sub_totals-&gt;ibal}</t>
+  </si>
+  <si>
+    <t>Початковий залишок</t>
+  </si>
+  <si>
+    <t>{$v-&gt;ledger-&gt;sub_totals-&gt;pcredit}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +218,20 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF008000"/>
       <name val="Arial"/>
@@ -206,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -263,9 +304,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -274,7 +313,48 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -283,53 +363,52 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,18 +419,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,13 +441,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,17 +469,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G1" sqref="G1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,49 +854,50 @@
     <col min="3" max="3" width="66.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -803,130 +910,170 @@
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="s">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="35" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="C15" s="18" t="s">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="C18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="19" t="s">
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="C18" s="15" t="s">
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="C21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B2:E2"/>
@@ -934,10 +1081,10 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
